--- a/Normal2.xlsx
+++ b/Normal2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\אנגלית\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38616F9E-85DE-46D9-895A-DB396B376844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0248AF9A-99EF-4D20-99C8-9EA6E2F6DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="751">
   <si>
     <t>Serie</t>
   </si>
@@ -378,11 +378,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/ask/comments/1fwel3g/why_the_fuck_is_society_so_greedy_and_money_hungry/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello guys, 
-I am Indian who is an immigrant to US (LPR). I feel lonely because I am unable to make friends since I grew up with different conditions and environment than them. All my cousins were born in the UK or the US and have lived the life which I feel envious of. This question is more of an advise question because I am unable to move on mentally because of who I am. 
-</t>
   </si>
   <si>
     <t>Asteroids19_9</t>
@@ -724,11 +719,6 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fxw5bo/unlikely_acquaintance/</t>
   </si>
   <si>
-    <t xml:space="preserve">I misspelled my middle name from the time I got my drivers license at 17 years old. I'm 54 now.
-So my middle name is Jeffrey. Somehow, when I applied for my first license back in '87, I must've spelt my middle name as (Jeffery) incorrectly on my DMV paperwork. I'm sure this was my fault, not the fault of the DMV, I was an idiot back then. So all my licenses thru the years have had my middle name spelt (Jeffery). Now keep in mind, I didn't even realize that my middle name was misspelled. One day, decades later, I casually asked my mom why she spelt it (Jeffery)? She said she was pretty sure it was Jeffrey and told me to look at my birth certificate. The spelling was Jeffrey, I'm such an idiot, so basically since 1987, my drivers license had been wrong. Laziness was the main factor on why I didn't fix it once I realized I misspelled my middle name. Now ordinarily, this would be no biggie, but once I knew it was wrong, I did want to fix this. But the realization of the misspelling was post 911. I remember hearing stories of people with only a slight error in names on documents, could prevent you from flying. We were planning an overseas trip that would require a passport. I got all my documents in order and used the correct spelling of Jeffrey and got my passport with the correct spelling and all was well, but again, I was afraid that the minor spelling difference could pose a problem. Fast forward to last year, I finally had to go into the DMV to renew my drivers license, multiple years of just renewing by mail. I had brought all that was needed to renew my license but this time I mentioned the misspelling and she just fixed it right there. I had stressed over this multiple times, and poof, fixed. Did I mention, I'm also a procrastinator?
-</t>
-  </si>
-  <si>
     <t>im_a_jenius</t>
   </si>
   <si>
@@ -872,11 +862,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fwzrcd/im_going_to_catch_up_with_my_high_school_english/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never felt such disgust by such a stupid thing
-You know how when you're half awake your perception of reality gets all weird? So, yesterday night I laid on the couch and started watching It's Always Sunny in Philadelphia. Halfway through an episode I fell asleep and wasn't until the middle of next episode that I woke up. When I "woke up", I was in that weird delirious sleepy state and on the screen was Charlie and Dee making out. I remember making this horrified face and having a profound sense of disgust that only the other characters of the show would've felt seeing that scene. I immediately turned off the tv and went to bed. Today I can't help but laugh at such stupid situation.
-</t>
   </si>
   <si>
     <t>4ha1</t>
@@ -1302,11 +1287,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fuzgs5/in_search_of_my_lost_keys/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My dad doubts my insights, so I tell him AI generated them and he’s mystified
-I have a weird relationship with my dad right now where we’re now competing for intelligent content to share with each other. I’m bipolar, so much of what I say to him is filtered immediately through this lens. Like, if I get excited about a theory or new hobby or complex life challenge, he’ll throw the whole, “Are you taking your meds?” bit. And I get it on some level but I feel it’s dictating his response to pretty much anything out of the ordinary I’m proposing to him in thoughtful engagement. So, as an experiment I started sending these texts to him (like, thoughtfully composed synopses of a documentary we both watched, where I challenged his perspective). After no response, I then texted “this was what AI said! lol!!!” And he immediately responds with “Wow!!! That’s a terrific insight. Where do I do it on my phone to ask or something?” I didn’t respond for a few days and returned to normal texting, but then I did the same exercise, with the exact same result. I am wondering now if I should just keep up the charade because part of me feels weirdly vindicated, or I should come clean (I think that would be awkward). Or I just return to the radio silent response where he assumes I am either in some bizarre mental crisis or it must be AI.
-</t>
   </si>
   <si>
     <t>Impossible_Ad1631</t>
@@ -1547,12 +1527,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1ftjc6l/i_tried_cooking_and_almost_burned_my_house_down/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I made my friend laugh the hardest I have ever seen him laugh
-We were in a group playing a game called Wavelength, where everyone has to ready up and some point. While waiting for the last person to ready up, the screen showed this as "Waiting for Fred to finish".
-My friend reads the words on the screen and I replied,"Sounds like a happy marriage to me." He then proceeded to absolutely die at that comment, and I sat there smug as hell lol.
-</t>
   </si>
   <si>
     <t>scaredofheights00</t>
@@ -1662,15 +1636,6 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fspl9m/i_thought_my_manager_had_terrible_sunburn/</t>
   </si>
   <si>
-    <t xml:space="preserve">I put my phone in the freezer and forgot it for 2 days
-My phone not only loses a charge quickly but the battery overheats. Just as I was ready to charge it I get a pop-up message that the battery was overheating. I put it on top of the freezer thinking to cool it off, but that didn't work so I decided to put it inside for a few seconds. I'd done it before and all was fine. Unfortunately my memory is terrible and within a few seconds I'd forgotten where I put it. I spent hours looking all over for it.
-Next day was shopping day. I had lost a lot of sleep the night before because I worry about not getting up in time even though the alarm always wakes. I had a full cart in self checkout, and the frozen food triggered a memory of what I'd done to my phone . I was so spaced out that I left without paying.
-Luckily I didn't go outside. I was chatting with a friend while we waited for the bus when I suddenly realized I had just walked out with an unpaid load of groceries. Had to run everything through again.
-Edit Part of my problem is that I am elderly with head injuries. ( Long story I won't go into) Also lack of sleep. I find as I grow older, I'm more prone to insomnia.
-I'll probably replace the whole phone. There's no place around here that sells batteries and this phone has had other issues.
-</t>
-  </si>
-  <si>
     <t>crittercorral</t>
   </si>
   <si>
@@ -1801,11 +1766,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1frrr0u/the_principal_at_a_school_i_worked_at/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My nephew emptied all my skincare products onto the floor !
-I had left my room door open and all my skincare items on the bed, most of which are really expensive. I got busy, and my little nephew, who’s not even three years old, came into the room. He saw the small, colorful bottles, opened them one by one and poured them all over the floor. When I came back, I found all the bottles empty on the floor. It was such a shock! But honestly, I know it’s my fault because I left everything out in the open for a little kid.
-</t>
   </si>
   <si>
     <t>PerfecttMachine</t>
@@ -2036,23 +1996,6 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fqji6u/we_played_badminton_with_a_typical_gen_alpha_dude/</t>
   </si>
   <si>
-    <t>If you keep making that face, it will stay like that. Of course that's not true, but I could have heeded somewhat of a warning from that old wives tale. 
-Back in Dec 2005 I was able to get my hands on the new Xbox 360 when it launched. When my 5 year old son tried to pronounce "Xbox 360" he kind of garbled it, and my daughter who was 9 laughed at him. He was self conscious about it, so I started referring to it very incorrectly as the "Ethk Bothk Free Thithky" and they'd both laugh and in doing so, it took the heat away from him. 
-I was a game journalist and I needed to use it for work, so there was ample time for the kids to ask the very leading question, "Dad, what system are you playing?" And I'd answer "The Ethk Bothk Free Thithky!" And they'd laugh. This went on for a few weeks and then something terrible happened; it got the "Red Ring of Death". 
-I packaged it up and took it back to the Game Stop I bought it at. It's just after the holidays and the store is packed, so I stand in line and wait my turn. The guy working there can see I'm carrying a large system and when I walk up to the counter asks, "Whadya got there?" 
-"My Ethk Bothk Free Thithky..." and then I immediately stop talking. Did I literally just say that out loud? Everyone is now either looking directly at me or not making eye contact due to what can only be described as a speech pathologists ransom in verbal disorders. 
-I attempt to say it again. "Ethk Bothk...Esk Bosk...Esk Box..." I realize I can't get the actual wording &amp; pronunciation from my brain to my lips because I've abused the name for too long. The guy at the counter is one of those people who wouldn't throw you a rope if you were drowning in front of him either. He couldn't have just offered up a half-assed "Oh, you've got an Xbox 360!"? Nope. Just standing there letting me flounder and flop sweat for the Christmas masses infesting the store like vermin until the correct pronunciation manifested itself. Took more willpower than Mel Tillis moonlighting as an auctioneer. 
-Long pointless story short: I wasn't getting one from them as they didn't have any to give. 
-I went home, embarrassed &amp; humiliated and called my Microsoft PR person the next day to ask for one. Had to leave a message. And yes, I said "Ethk Bothk Free Thithky" to them as well, because of course I did. 
-To answer your Q. I did get another. Never called it that again but it took almost 2 months before I could say it without stumbling.</t>
-  </si>
-  <si>
-    <t>Uncle_Bug_Music</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PointlessStories/comments/1fr02ok/if_you_keep_making_that_face_it_will_stay_like/</t>
-  </si>
-  <si>
     <t>A crazy guy threw pumpkins at people and destroyed a store i worked at 
 A couple years ago I used to work at a kroger. It was not in a very good area and we would get the occasional crazy walk in. It was around Halloween and it was a slow night when all of a sudden i hear screaming coming from up front. I go up to see what's going on and there's this teenager standing on the box of pumpkins throwing them at people. He knocked down a lady that worked in the bakery and she was slightly injured as well as hit a few customers. When the cops came, he climbed on top of the shelves and started throwing glass jars at them. He ran into a back room and somehow lost the cops and escaped through the locked second set of doors by smashing the window. The police chased him and eventually caught him but the store was closed for the rest of the day because of how much of a mess he made. The next day a coworker found a mini backpack with a knife and a crystal substance in a baggie, and a bunch of random people's mail behind a pallet.</t>
   </si>
@@ -2061,23 +2004,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fqxjyl/a_crazy_guy_threw_pumpkins_at_people_and/</t>
-  </si>
-  <si>
-    <t>I’m just missing a friend I bonded with 
-So basically I was in treatment for something and that’s all I really want to say for now but that is where this story takes place. It was in Oct/Nov of 2023. 
-I made friends with one of the guys there and we talked as often as we could. We got super close and we had the kind of connection that you didn’t even need to say anything but we knew what each other was thinking. 
-It was near Halloween and one of the questions of the day was what our favorite candy was. We both answered it but as someone who remembers the little details, i remembered what he said. Tbh I still remember what it is. 
-It was Halloween day and staff planned something special for all of us to do. I could tell he was off that day even though he acted fine. I noticed his favorite candy on the snack table (of which he walked right by) so I grabbed a handful of them. It was a huge thing of candy and they kept telling us to take as much as we could hold. 
-He was off in the distance sitting by himself so I wanted to make sure he was okay. I gave him a piece of candy and he was shocked that I remembered. We sat on the park swings for the entire time just talking. 
-Everyday after that, I just kept giving him a piece until I finally ran out. I could tell he felt like it was one of those “it’s the little things” moments and he I can guarantee he thought I was silly for just randomly handing him pieces out of nowhere. 
-I really miss him. I felt like he was a really good friend and a he is a truly kind hearted person. I should’ve asked about swapping contacts beforehand but for that situation, I didn’t have my phone and I was just living in the moment. It was so nice. The day I was scheduled to leave came by surprise for everyone, myself included. I knew something was up because I saw the signs we’ve talked about. I asked him about exchanging numbers but I understood what was wrong and I feel really bad for asking again. I just miss talking to him and seeing him every day. I have no idea how to get into contact with him now but I’m not even sure if he would fully remember me seeing the context of the situation. 
-I don’t even think you use Reddit but if by chance you see this, I really hope you’re doing well. &lt;3</t>
-  </si>
-  <si>
-    <t>PremiumGarbageBin</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PointlessStories/comments/1fr4wc4/im_just_missing_a_friend_i_bonded_with/</t>
   </si>
   <si>
     <t>Hoodie smells like weed 
@@ -2126,32 +2052,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fqoran/today/</t>
-  </si>
-  <si>
-    <t>I Lost $10,000 Because I Forgot to Put a Paper Towel Roll in a Bag 
-I have worked in a grocery store for five years now. There’s a yearly bagging competition which they asked me to do, and it works like this: the first round is at the corporate office against the other locations of the store. The second round is at the state competition where whoever wins that will represent the whole state. After that, one person from each participating state gets flown to Las Vegas to compete in the championship for the chance to win $10,000. 
-The other day I represented my store competing in the first round at the corporate office. I was very nervous, but the experience was incredibly fun and a wonderful environment. There was so much cheering as people bagged the night away. They even handed out pom-poms and forms of noise makers for it. Having such a wide variety of friendly people, snacks, music, and socializing really helped calm my nerves. 
-Out of 21 people, I drew number 16 for my turn to go which was a relief. I go up there so nervous I practically feel like I’m gonna shit out my heart. The items are all spread out on a wide table with three re-usable bags in front of me. The guy blows the whistle and I bagged like my life depended on it. I felt like I was up there for an eternity, but I ended up getting one of the fastest times. The second I put my hands in the air when I was done, I look to my right and see that stupid paper towel roll. I was moving so fast that I didn’t look around to see if I forgot any items! My heart dropped in that moment, but I thought “it’s okay that’s only one point off you’ll be fine.” 
-At the end when they were announcing who won, not hearing my name come out of her mouth upset me more than I thought. I didn’t expect to win going into this, but I thought I did very well. I went up to her asking where I placed because they only announce the winner. Apparently I would’ve won if I didn’t forget the paper towel roll! I was so mad, and still days later feel filled with rage seeing paper towels. A single roll made me lose my chance at going to Vegas to win it all. 
-I went into work the next day and everyone was congratulating me, but I still felt ashamed for not getting first place. One of my managers was fooling around with me and threw a paper towel roll my way! I caught it though, and for some reason that gave me a sense of closure? Anyway, I lost my chance at winning $10,000 because of a fucking paper towel roll. I regret nothing though and want to try again next year if I’m still working here.</t>
-  </si>
-  <si>
-    <t>WebAlarming4759</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PointlessStories/comments/1fq3vj1/i_lost_10000_because_i_forgot_to_put_a_paper/</t>
-  </si>
-  <si>
-    <t>I got too distracted by chores 
-My fiancée and I moved to our new house a couple of months ago. We are comfortably living there but it is far from finished since he is busy at work and I broke my leg. I finished my puzzle and wanted to put it away but had to use the bathroom first. While washing my hands I remembered the bathroom sink was long overdue for a clean. Because hopping around on my crutches gives me a good amount of time to get distracted from what I was actually doing, cleaning the sink became my first priority. We do not have a lot of space but we do have a laundry room where we have two hampers and store our camping gear, the infamous bag with bags in it, bottles and cans and cleaning supplies. This leaves just enough space for one person to do the laundry. I hopped in there to find a mess. My fiancée is sweet but is really bad at keeping storage spaces tidy. To reach the cleaning supplies I had to get past the overflown bag bag which on crutches is barely possible. I needed a solution for this as I couldn’t get to the cleaning supplies I needed for the bathroom sink. I started to put the bags in the bag bag and found some other stuff that we hadn’t put in place since the move, one of those were hooks. There still was a hole in the wall from the last person living here, in the perfect spot for one of those hooks where the bag bag could hang. Since it’s apparently one of those days I’m going from one thing to another and no compromises are made, I hopped over to get a screw and a screwdriver so the bag bag can hang out of my way. Finally able to reach the cleaning supplies I figured it needed rearranging since the way it was just didn’t make sense to me. They needed to go under the kitchen sink so I threw all of them in a bag and put said bag in front of the kitchen sink. It made so much space that I could finally put away the boxes we had decided to put there eventually. The pile of boxes was as tall as an average sized adult and could easily be lessened by just putting boxes in boxes. It took me half an hour to cut the pile of boxes in half. I got my office chair and stacked them on there to move them to the laundry room. Walking on crutches is slow, walking on crutches and having to move an office chair is even slower. In the meanwhile I had already forgot about the bag of cleaning supplies I put in the kitchen. The boxes were put away but the cleaning supplies still needed to go under the kitchen sink which luckily didn’t take that much time. After 3 hours, my puzzle is still on my bureau and the bathroom sink is still dirty. 
-Note: this is the most pointless but true story I’ve ever written 
-Tldr: Wanted to put away a puzzle and clean a sink, got distracted by other messes, took 3 hours to clean up other unrelated messes. Original tasks not completed.</t>
-  </si>
-  <si>
-    <t>confuus-duin</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PointlessStories/comments/1fqrlvt/i_got_too_distracted_by_chores/</t>
   </si>
   <si>
     <t>World’s Slowest Car Chase 
@@ -2204,15 +2104,6 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fqiej8/wrong_city/</t>
   </si>
   <si>
-    <t xml:space="preserve">I didn't know I was allergic to celery or red dye 40 or asthmatic for 21 years
-I asked my friends recently why celery was so spicy since it was mostly water.
-I asked these same friends why red icees and red kookaid were so popular since they dry the throat/mouth out so badly.
-I told different friends that I loved pineapple but could only have a few bites before it digests me back. Pineapples do this to everyone, but apparently, your mouth shouldn't immediately become raw and get ulcers from them. I thought it was just from the acid.
-I was once trying to explain my strep throat to my boyfriend and said "you know the burning and tightness in your throat, almost like it's closing, when you run or when it's cold?" And he said "no... No I don't". I got an inhaler soon after.
-I guess it just goes to show how much people truly don't question their own norms sometimes.
-</t>
-  </si>
-  <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fpi35o/i_didnt_know_i_was_allergic_to_celery_or_red_dye/</t>
   </si>
   <si>
@@ -2275,13 +2166,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fpu8a9/a_teacher_mispronounced_a_word_in_an_adobe/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The river
-One of my best memories of Eduardo took place by a river. We had spent the morning walking along muddy paths under torrential rain and a cloud that had settled over the valley. Everything smelled of earth and rice fields, an intense scent that’s impossible to forget once you’ve experienced it. He walked under the rain with a smile while my biggest concern was trying to protect my camera and still enjoy the moment. I remember a hut along the way where I tried in vain to wipe the water from my face. I remember the Vietnamese girls who accompanied us, trying to sell us a stick to make us less clumsy.
-We reached the lowest part of the fields where the river—swollen from the rain—had suddenly risen, and the only way to cross was by wading waist-deep. The water rushed by in torrents. The girls, despite hopping from rock to rock like mountain goats, never slipping, were too small to cross without risk. But they tried anyway. That’s when he said something to them—I couldn’t hear it over the rain and the river—then took off his shoes, stepped into the brown torrent of water, mud, and foam, which reached up to his chest, and without ever losing his smile, helped each of them across.
-I knew in that moment I would never forget it.
-</t>
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fprnw9/the_river/</t>
@@ -2466,12 +2350,6 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fpi8sf/these_crystals_will_protect_you_from_radio_waves/</t>
   </si>
   <si>
-    <t xml:space="preserve">I dont remember what Reacher books I have read
-I am at the library and I want to read a new Jack Reacher book, I see the titles and I am confused as to which ones I have read. Looking through all the books on wikipedia I know I have read like 80 percent of them. BUT there is a small five percent where I am like "this one sounds familiar but I am not sure". Its only like three books lol. The new one was the only one I have not read but thats just one book.
-The problem is I found this weird website a long time ago where I could get free pdfs of books and I got a bunch of Reacher books and read through them. But the I deleted them for some reason, so there is no way of knowing. Plus I am just getting forgetful in my old age of 32.
-</t>
-  </si>
-  <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fpbe9i/i_dont_remember_what_reacher_books_i_have_read/</t>
   </si>
   <si>
@@ -2701,24 +2579,10 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fo5kht/my_dad_woke_me_up_early/</t>
   </si>
   <si>
-    <t xml:space="preserve">Person who cut me off bought my coffee 
-I was getting coffee at a drive thru yesterday, and the parking lot is set up at a weird angle where the drive thru lane spills directly into the street entrance lane for the entire lot. I was stopped far enough back(with my turn signal on) that people could safely enter and exit the lot around me. 
-Que this massive mini van coming in from the parking spots and getting in line in front of me, blocking part of the street entrance lane. Annoying, but whatever. I order, pull up to the next window to pay, and the cashier says that the car ahead of me payed for my order! Sweet. I ask the cashier if people are doing a pay-it-forward chain, and he grimaces so hard. He leans over and puts a hand up, and says, “Let’s not do that.” 
-Silly interactions that put me in a good mood the rest of the day. 
-</t>
-  </si>
-  <si>
     <t>lookingforlimpdick</t>
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fnux43/person_who_cut_me_off_bought_my_coffee/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrong Way Dude
-The other day I was in a city about an hour away from me, driving through an area where existing infrastructure and new infrastructure collide in a sometimes confusing manner. I knew I needed to take a right turn coming up, and as I turn on my blinker and start to make the turn I see this car stopped at a stop sign in the oncoming lane. This man with his window down starts rapidly shaking his head, crossing his hand under his throat and saying ‘Nononono!’ and that’s when I realize that their had once been arrows painted on the rode, worn off by time or de-icer. Both of these faded arrows pointed towards me.
-I quickly got back on the main road, luckily his reaction gave me enough space to be able to do so safely. I give him a little wave as I drive off and he is giving me a thumbs up and smiling. I think it’s endearing that he looked out for a total stranger.
-Note: I’m not normally doing things like this while driving, just a lapse in judgment.
-</t>
   </si>
   <si>
     <t>Savj17</t>
@@ -2800,11 +2664,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/PointlessStories/comments/1fn7rht/my_bf_said_hed_marry_me_tomorrow_if_he_could/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I got knocked over by a wave yesterday.
-I am 27/F, and a hiking guide. I had two guests on a two hour hike. This trail was on the ocean, and it was a windy day, so the waves were crashing on the rocks. We were detouring along some of the rocks near the ocean, but not too close that a wave could've swept us away. I was taking a photo on my phone of some sea foam that was floating in a little gulch, a small arm of the sea coming up into a couple of the rocks. A big wave came and actually swept right into the little gulch and knocked me over into a tidepool and swept me up onto another rock. I could only give into the water and allow myself to be carried away because I had one hand in the air trying to keep my phone dry. My hiking boots, pants, and bottom half of my rain jacket were completely drenched and I had sea foam all over me. The guests and I were laughing so hard. It was fucking funny.
-</t>
   </si>
   <si>
     <t>Female</t>
@@ -2919,17 +2778,6 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fnocgr/tortillas_and_foam_cups/</t>
   </si>
   <si>
-    <t>I flirted with my bartender last night 
-My boyfriend and I broke up a month and a half ago. For the past month, he’s purposefully been ignoring me. At the beginning, we had spoken on this just being a break, but it’s clear how he feels. I’m trying to move on but it’s hard. 
-One of the main points of contention in our relationship was the lack of intimacy and sex. I have always been a very sensual and intimate person, and honestly yes very sexual with those I have that relationship with. I joke that I am the most stereotypical libra you’d ever meet. But my ex was so non-sexual, there was so little intimacy. Sex averaged once or twice a month. It took over a year for me to make him hear that it was all about him when we did, and it only served him. 
-I’ve come to realize that throughout the two and a half years we were together, I am almost a shell of who I was. A lot of that was due to finishing my degree, but since being single again I’m finding myself uncomfortable in situations where I would usually be so confident. I’m angry at him for this. 
-But last night after work, I decided to go to the bar across the street. I ordered my cocktail and honestly the emotions were getting to me about everything so I may have had glassy eyes. One of the bartenders comes up to me, hands me some napkins and we proceed to talk for the next two hours. I found myself flirting in the same effortless way I used to, and it quickly came back to me — the lingering glances, a brush of the finger, the quick smiles. I was in no way playing with him, we spoke about how we were both going through the same thing and cheered to a better future for us both. But at the same time, I realized that I hadn’t been using this part of myself in years. Not even with my boyfriend, we lacked so much intimacy it felt like just roommates most times. It honestly is how I have always interacted with people, and to me it feels natural. 
-I’m angry at my ex. For the broken promises, and for making me lose touch with a part of myself that I find so much sense of self in. And I’m sad. But last night was that awakening, and I realized how much of myself I had lost. But I’m aware of it now, and I can use my anger to fuel myself.</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PointlessStories/comments/1fn6aox/i_flirted_with_my_bartender_last_night/</t>
-  </si>
-  <si>
     <t>I had to buy my fiancé his own sloth 
 A few months back I saw an ad for weighted plushies that are supposed to be super cuddly and comfortable and good for anxiety. I impulsively bought a giant penguin and named him Frosty and made a bunch of jokes about how he was going to replace my fiancé because I was going to start cuddling with the penguin. 
 Anyway, the penguin (which is basically like a 10-pound giant fuzzy penguin beanbag) actually really is very nice to cuddle with. And over time my fiancé started to steal him from me once in a while, then he was stealing Frosty every night. 
@@ -2961,17 +2809,177 @@
     <t>https://www.reddit.com/r/PointlessStories/comments/1fmre6b/theres_a_name_for_that/</t>
   </si>
   <si>
+    <t>word</t>
+  </si>
+  <si>
     <t>num of character</t>
   </si>
   <si>
     <t>num of word</t>
+  </si>
+  <si>
+    <t>Total posts</t>
+  </si>
+  <si>
+    <t>total website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">character </t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Hello guys, 
+I am Indian who is an immigrant to US (LPR). I feel lonely because I am unable to make friends since I grew up with different conditions and environment than them. All my cousins were born in the UK or the US and have lived the life which I feel envious of. This question is more of an advise question because I am unable to move on mentally because of who I am.</t>
+  </si>
+  <si>
+    <t>I misspelled my middle name from the time I got my drivers license at 17 years old. I'm 54 now.
+So my middle name is Jeffrey. Somehow, when I applied for my first license back in '87, I must've spelt my middle name as (Jeffery) incorrectly on my DMV paperwork. I'm sure this was my fault, not the fault of the DMV, I was an idiot back then. So all my licenses thru the years have had my middle name spelt (Jeffery). Now keep in mind, I didn't even realize that my middle name was misspelled. One day, decades later, I casually asked my mom why she spelt it (Jeffery)? She said she was pretty sure it was Jeffrey and told me to look at my birth certificate. The spelling was Jeffrey, I'm such an idiot, so basically since 1987, my drivers license had been wrong. Laziness was the main factor on why I didn't fix it once I realized I misspelled my middle name. Now ordinarily, this would be no biggie, but once I knew it was wrong, I did want to fix this. But the realization of the misspelling was post 911. I remember hearing stories of people with only a slight error in names on documents, could prevent you from flying. We were planning an overseas trip that would require a passport. I got all my documents in order and used the correct spelling of Jeffrey and got my passport with the correct spelling and all was well, but again, I was afraid that the minor spelling difference could pose a problem. Fast forward to last year, I finally had to go into the DMV to renew my drivers license, multiple years of just renewing by mail. I had brought all that was needed to renew my license but this time I mentioned the misspelling and she just fixed it right there. I had stressed over this multiple times, and poof, fixed. Did I mention, I'm also a procrastinator?</t>
+  </si>
+  <si>
+    <t>Never felt such disgust by such a stupid thing
+You know how when you're half awake your perception of reality gets all weird? So, yesterday night I laid on the couch and started watching It's Always Sunny in Philadelphia. Halfway through an episode I fell asleep and wasn't until the middle of next episode that I woke up. When I "woke up", I was in that weird delirious sleepy state and on the screen was Charlie and Dee making out. I remember making this horrified face and having a profound sense of disgust that only the other characters of the show would've felt seeing that scene. I immediately turned off the tv and went to bed. Today I can't help but laugh at such stupid situation.</t>
+  </si>
+  <si>
+    <t>My dad doubts my insights, so I tell him AI generated them and he’s mystified
+I have a weird relationship with my dad right now where we’re now competing for intelligent content to share with each other. I’m bipolar, so much of what I say to him is filtered immediately through this lens. Like, if I get excited about a theory or new hobby or complex life challenge, he’ll throw the whole, “Are you taking your meds?” bit. And I get it on some level but I feel it’s dictating his response to pretty much anything out of the ordinary I’m proposing to him in thoughtful engagement. So, as an experiment I started sending these texts to him (like, thoughtfully composed synopses of a documentary we both watched, where I challenged his perspective). After no response, I then texted “this was what AI said! lol!!!” And he immediately responds with “Wow!!! That’s a terrific insight. Where do I do it on my phone to ask or something?” I didn’t respond for a few days and returned to normal texting, but then I did the same exercise, with the exact same result. I am wondering now if I should just keep up the charade because part of me feels weirdly vindicated, or I should come clean (I think that would be awkward). Or I just return to the radio silent response where he assumes I am either in some bizarre mental crisis or it must be AI.</t>
+  </si>
+  <si>
+    <t>I made my friend laugh the hardest I have ever seen him laugh
+We were in a group playing a game called Wavelength, where everyone has to ready up and some point. While waiting for the last person to ready up, the screen showed this as "Waiting for Fred to finish".
+My friend reads the words on the screen and I replied,"Sounds like a happy marriage to me." He then proceeded to absolutely die at that comment, and I sat there smug as hell lol.</t>
+  </si>
+  <si>
+    <t>I put my phone in the freezer and forgot it for 2 days
+My phone not only loses a charge quickly but the battery overheats. Just as I was ready to charge it I get a pop-up message that the battery was overheating. I put it on top of the freezer thinking to cool it off, but that didn't work so I decided to put it inside for a few seconds. I'd done it before and all was fine. Unfortunately my memory is terrible and within a few seconds I'd forgotten where I put it. I spent hours looking all over for it.
+Next day was shopping day. I had lost a lot of sleep the night before because I worry about not getting up in time even though the alarm always wakes. I had a full cart in self checkout, and the frozen food triggered a memory of what I'd done to my phone . I was so spaced out that I left without paying.
+Luckily I didn't go outside. I was chatting with a friend while we waited for the bus when I suddenly realized I had just walked out with an unpaid load of groceries. Had to run everything through again.
+Edit Part of my problem is that I am elderly with head injuries. ( Long story I won't go into) Also lack of sleep. I find as I grow older, I'm more prone to insomnia.
+I'll probably replace the whole phone. There's no place around here that sells batteries and this phone has had other issues.</t>
+  </si>
+  <si>
+    <t>My nephew emptied all my skincare products onto the floor !
+I had left my room door open and all my skincare items on the bed, most of which are really expensive. I got busy, and my little nephew, who’s not even three years old, came into the room. He saw the small, colorful bottles, opened them one by one and poured them all over the floor. When I came back, I found all the bottles empty on the floor. It was such a shock! But honestly, I know it’s my fault because I left everything out in the open for a little kid.</t>
+  </si>
+  <si>
+    <t>I didn't know I was allergic to celery or red dye 40 or asthmatic for 21 years
+I asked my friends recently why celery was so spicy since it was mostly water.
+I asked these same friends why red icees and red kookaid were so popular since they dry the throat/mouth out so badly.
+I told different friends that I loved pineapple but could only have a few bites before it digests me back. Pineapples do this to everyone, but apparently, your mouth shouldn't immediately become raw and get ulcers from them. I thought it was just from the acid.
+I was once trying to explain my strep throat to my boyfriend and said "you know the burning and tightness in your throat, almost like it's closing, when you run or when it's cold?" And he said "no... No I don't". I got an inhaler soon after.
+I guess it just goes to show how much people truly don't question their own norms sometimes.</t>
+  </si>
+  <si>
+    <t>The river
+One of my best memories of Eduardo took place by a river. We had spent the morning walking along muddy paths under torrential rain and a cloud that had settled over the valley. Everything smelled of earth and rice fields, an intense scent that’s impossible to forget once you’ve experienced it. He walked under the rain with a smile while my biggest concern was trying to protect my camera and still enjoy the moment. I remember a hut along the way where I tried in vain to wipe the water from my face. I remember the Vietnamese girls who accompanied us, trying to sell us a stick to make us less clumsy.
+We reached the lowest part of the fields where the river—swollen from the rain—had suddenly risen, and the only way to cross was by wading waist-deep. The water rushed by in torrents. The girls, despite hopping from rock to rock like mountain goats, never slipping, were too small to cross without risk. But they tried anyway. That’s when he said something to them—I couldn’t hear it over the rain and the river—then took off his shoes, stepped into the brown torrent of water, mud, and foam, which reached up to his chest, and without ever losing his smile, helped each of them across.
+I knew in that moment I would never forget it.</t>
+  </si>
+  <si>
+    <t>I dont remember what Reacher books I have read
+I am at the library and I want to read a new Jack Reacher book, I see the titles and I am confused as to which ones I have read. Looking through all the books on wikipedia I know I have read like 80 percent of them. BUT there is a small five percent where I am like "this one sounds familiar but I am not sure". Its only like three books lol. The new one was the only one I have not read but thats just one book.
+The problem is I found this weird website a long time ago where I could get free pdfs of books and I got a bunch of Reacher books and read through them. But the I deleted them for some reason, so there is no way of knowing. Plus I am just getting forgetful in my old age of 32.</t>
+  </si>
+  <si>
+    <t>Person who cut me off bought my coffee 
+I was getting coffee at a drive thru yesterday, and the parking lot is set up at a weird angle where the drive thru lane spills directly into the street entrance lane for the entire lot. I was stopped far enough back(with my turn signal on) that people could safely enter and exit the lot around me. 
+Que this massive mini van coming in from the parking spots and getting in line in front of me, blocking part of the street entrance lane. Annoying, but whatever. I order, pull up to the next window to pay, and the cashier says that the car ahead of me payed for my order! Sweet. I ask the cashier if people are doing a pay-it-forward chain, and he grimaces so hard. He leans over and puts a hand up, and says, “Let’s not do that.” 
+Silly interactions that put me in a good mood the rest of the day.</t>
+  </si>
+  <si>
+    <t>Wrong Way Dude
+The other day I was in a city about an hour away from me, driving through an area where existing infrastructure and new infrastructure collide in a sometimes confusing manner. I knew I needed to take a right turn coming up, and as I turn on my blinker and start to make the turn I see this car stopped at a stop sign in the oncoming lane. This man with his window down starts rapidly shaking his head, crossing his hand under his throat and saying ‘Nononono!’ and that’s when I realize that their had once been arrows painted on the rode, worn off by time or de-icer. Both of these faded arrows pointed towards me.
+I quickly got back on the main road, luckily his reaction gave me enough space to be able to do so safely. I give him a little wave as I drive off and he is giving me a thumbs up and smiling. I think it’s endearing that he looked out for a total stranger.
+Note: I’m not normally doing things like this while driving, just a lapse in judgment.</t>
+  </si>
+  <si>
+    <t>I got knocked over by a wave yesterday.
+I am 27/F, and a hiking guide. I had two guests on a two hour hike. This trail was on the ocean, and it was a windy day, so the waves were crashing on the rocks. We were detouring along some of the rocks near the ocean, but not too close that a wave could've swept us away. I was taking a photo on my phone of some sea foam that was floating in a little gulch, a small arm of the sea coming up into a couple of the rocks. A big wave came and actually swept right into the little gulch and knocked me over into a tidepool and swept me up onto another rock. I could only give into the water and allow myself to be carried away because I had one hand in the air trying to keep my phone dry. My hiking boots, pants, and bottom half of my rain jacket were completely drenched and I had sea foam all over me. The guests and I were laughing so hard. It was fucking funny.</t>
+  </si>
+  <si>
+    <t>It always amazes me just how much and how often famous influencers/rappers/YouTubers fall off. 
+Recently decided to just go see what all my favorite influencers and streamers and rappers were up to after a couple of years and nearly all of them have fallen to complete irrelevancy. 
+It's just so crazy to me how you can have millions of followers and thousands of people talking about you and in a couple of years no one even cares anymore let alone decades and decades into the future. 
+It's why it's always impresses me to see a musician or anyone in the entertainment industry maintain their success and relevancy for years and years. Though who knows what they're doing to keep that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThrowawayT890123 
+</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/CasualConversation/comments/1g09w9i/it_always_amazes_me_just_how_much_and_how_often/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
+  </si>
+  <si>
+    <t>I named someone 
+There was this boy i went to school with that i met through a friend. his name was michael but i forgot and called him steven, he looked like a steven to me. Ever since then i called him steven , around my friends, his friends, just random people. Suddenly so many people would just walk up to him calling him steven and saying hi. 💃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btdparadise 
+</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/CasualConversation/comments/1g045t0/i_named_someone/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
+  </si>
+  <si>
+    <t>I forgot how physically demanding cleaning your house 
+Thoughts &amp; Ideas 
+I work a physical job (massage therapy), and used to all kind of physical endeavors (weightlifting, military action, used to work as a mover, etc). I'm a bit of slob, so I don't clean often, and I recently got back from a month and a half long combat deployment (I'm a military resevrist), so I got into a slump coming back and haven't cleaned for a while. I decided to clean my house yesterday, and oh my god, I forgot how hard it was! My body hurts more than what any of those things I've mentioned made me feel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roi_C 
+</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/CasualConversation/comments/1g0cakj/i_forgot_how_physically_demanding_cleaning_your/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
+  </si>
+  <si>
+    <t>My sister just changed her oil and requested that the tools and items needed as her Christmas gift. I just want to talk about how proud I am of her. 
+Title says it all, didn't know where else to post this. I have been turning wrenches for a long time, I help my friends and family when their cars need work. 
+She just went through a divorce and has been living with me temporarily. Her car needed an oil change and she wanted to see how to do it. Normally she's more of a video games / indoor type of person so when she was all about it, I just started glowing. Hell yeah, my sister is being more useful than most men today...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feelingsupersonic 
+</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/CasualConversation/comments/1fzgzdr/my_sister_just_changed_her_oil_and_requested_that/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
+  </si>
+  <si>
+    <t>What’s the hype around coffee? 
+Some of my friends CRAVE coffee in the morning when they wake up, buy iced coffee and can’t go about their day. Is coffee that impactful in a persons energy level? Or is just addiction, habit? If it’s that life changing ai would like to know so that I can start drinking it. Also what coffee is the ‘best’? Growing up my mom always used Nescafe instant coffee. I don’t own any machines or coffee makers, any suggestions? Side note I’ve had coffee before don’t really care for the taste and does rise my energy levels but I barely notice it. Idk can someone who loves coffee explain it to me? 🫰🏻 No hate just genuine curiosity lol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cassycasas11 
+</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/CasualConversation/comments/1fzluql/whats_the_hype_around_coffee/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2984,12 +2992,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6AAB73"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3027,13 +3029,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3315,15 +3314,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3345,14 +3344,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3455,8 +3454,14 @@
       <c r="J5">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" t="s">
+        <v>713</v>
+      </c>
+      <c r="N5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3481,8 +3486,14 @@
       <c r="J6">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" t="s">
+        <v>714</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3533,8 +3544,17 @@
       <c r="J8">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" t="s">
+        <v>715</v>
+      </c>
+      <c r="N8" t="s">
+        <v>710</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3559,8 +3579,20 @@
       <c r="J9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>716</v>
+      </c>
+      <c r="M9">
+        <v>166030</v>
+      </c>
+      <c r="N9">
+        <v>39148</v>
+      </c>
+      <c r="P9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3585,8 +3617,17 @@
       <c r="J10">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>717</v>
+      </c>
+      <c r="M10">
+        <v>664.12</v>
+      </c>
+      <c r="N10">
+        <v>156.59200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3611,8 +3652,17 @@
       <c r="J11">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" t="s">
+        <v>718</v>
+      </c>
+      <c r="M11">
+        <v>531.5</v>
+      </c>
+      <c r="N11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3637,8 +3687,17 @@
       <c r="J12">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="s">
+        <v>719</v>
+      </c>
+      <c r="M12">
+        <v>173156.49</v>
+      </c>
+      <c r="N12">
+        <v>9524.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3663,8 +3722,17 @@
       <c r="J13">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" t="s">
+        <v>720</v>
+      </c>
+      <c r="M13">
+        <v>416.12</v>
+      </c>
+      <c r="N13">
+        <v>97.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3689,8 +3757,17 @@
       <c r="J14">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" t="s">
+        <v>721</v>
+      </c>
+      <c r="M14">
+        <v>2055</v>
+      </c>
+      <c r="N14">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3715,8 +3792,17 @@
       <c r="J15">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="s">
+        <v>722</v>
+      </c>
+      <c r="M15">
+        <v>72</v>
+      </c>
+      <c r="N15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3742,7 +3828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3768,7 +3854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3794,7 +3880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3820,7 +3906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3846,7 +3932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3872,7 +3958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3898,7 +3984,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3924,7 +4010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3950,7 +4036,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3976,7 +4062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4002,7 +4088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4028,7 +4114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4054,7 +4140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4080,7 +4166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4106,7 +4192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4132,7 +4218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4158,7 +4244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4184,7 +4270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4210,7 +4296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4236,50 +4322,50 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>723</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
         <v>112</v>
       </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>113</v>
-      </c>
       <c r="I36">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J36">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
         <v>115</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>116</v>
       </c>
       <c r="I37">
         <v>413</v>
@@ -4288,24 +4374,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
         <v>118</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
       </c>
       <c r="I38">
         <v>292</v>
@@ -4314,24 +4400,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
         <v>121</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>122</v>
       </c>
       <c r="I39">
         <v>381</v>
@@ -4340,24 +4426,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
         <v>124</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>125</v>
       </c>
       <c r="I40">
         <v>468</v>
@@ -4366,24 +4452,24 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
         <v>127</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>128</v>
       </c>
       <c r="I41">
         <v>389</v>
@@ -4392,24 +4478,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>130</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>131</v>
       </c>
       <c r="I42">
         <v>441</v>
@@ -4418,24 +4504,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
         <v>133</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>134</v>
       </c>
       <c r="I43">
         <v>331</v>
@@ -4444,24 +4530,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
         <v>136</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>137</v>
       </c>
       <c r="I44">
         <v>419</v>
@@ -4470,24 +4556,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
         <v>139</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>140</v>
       </c>
       <c r="I45">
         <v>390</v>
@@ -4496,24 +4582,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
         <v>142</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>143</v>
       </c>
       <c r="I46">
         <v>421</v>
@@ -4522,24 +4608,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
         <v>145</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>146</v>
       </c>
       <c r="I47">
         <v>329</v>
@@ -4548,24 +4634,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
         <v>148</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>149</v>
       </c>
       <c r="I48">
         <v>443</v>
@@ -4574,24 +4660,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
         <v>151</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>152</v>
       </c>
       <c r="I49">
         <v>342</v>
@@ -4600,24 +4686,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
         <v>154</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>155</v>
       </c>
       <c r="I50">
         <v>390</v>
@@ -4626,24 +4712,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="E51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
         <v>157</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>158</v>
       </c>
       <c r="I51">
         <v>348</v>
@@ -4652,24 +4738,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
         <v>160</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>161</v>
       </c>
       <c r="I52">
         <v>399</v>
@@ -4678,24 +4764,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
         <v>163</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>164</v>
       </c>
       <c r="I53">
         <v>423</v>
@@ -4704,24 +4790,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
         <v>166</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>167</v>
       </c>
       <c r="I54">
         <v>391</v>
@@ -4730,27 +4816,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
         <v>168</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
       </c>
       <c r="D55">
         <v>26</v>
       </c>
       <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
         <v>170</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>171</v>
       </c>
       <c r="I55">
         <v>353</v>
@@ -4759,21 +4845,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
         <v>172</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
         <v>173</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
-        <v>174</v>
       </c>
       <c r="I56">
         <v>1225</v>
@@ -4782,21 +4868,21 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" t="s">
         <v>175</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
         <v>176</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>177</v>
       </c>
       <c r="I57">
         <v>599</v>
@@ -4805,21 +4891,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" t="s">
         <v>178</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
         <v>179</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>180</v>
       </c>
       <c r="I58">
         <v>224</v>
@@ -4828,21 +4914,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
         <v>181</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
         <v>182</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>183</v>
       </c>
       <c r="I59">
         <v>1206</v>
@@ -4851,21 +4937,21 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" t="s">
         <v>184</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
         <v>185</v>
-      </c>
-      <c r="F60" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>186</v>
       </c>
       <c r="I60">
         <v>716</v>
@@ -4874,21 +4960,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" t="s">
         <v>187</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
         <v>188</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>189</v>
       </c>
       <c r="I61">
         <v>203</v>
@@ -4897,21 +4983,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" t="s">
         <v>190</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
         <v>191</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>192</v>
       </c>
       <c r="I62">
         <v>374</v>
@@ -4920,21 +5006,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" t="s">
         <v>193</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
         <v>194</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>195</v>
       </c>
       <c r="I63">
         <v>1337</v>
@@ -4943,21 +5029,21 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" t="s">
         <v>196</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
         <v>197</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>198</v>
       </c>
       <c r="I64">
         <v>323</v>
@@ -4966,21 +5052,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" t="s">
         <v>199</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
         <v>200</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>201</v>
       </c>
       <c r="I65">
         <v>898</v>
@@ -4989,21 +5075,21 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" t="s">
         <v>202</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
         <v>203</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>204</v>
       </c>
       <c r="I66">
         <v>914</v>
@@ -5012,44 +5098,44 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>724</v>
+      </c>
+      <c r="E67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
         <v>205</v>
       </c>
-      <c r="E67" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>207</v>
-      </c>
       <c r="I67">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J67">
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
         <v>208</v>
-      </c>
-      <c r="E68" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
-        <v>210</v>
       </c>
       <c r="I68">
         <v>962</v>
@@ -5058,21 +5144,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
         <v>211</v>
-      </c>
-      <c r="E69" t="s">
-        <v>212</v>
-      </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
-        <v>213</v>
       </c>
       <c r="I69">
         <v>545</v>
@@ -5081,21 +5167,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
         <v>214</v>
-      </c>
-      <c r="E70" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>216</v>
       </c>
       <c r="I70">
         <v>620</v>
@@ -5104,21 +5190,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
         <v>217</v>
-      </c>
-      <c r="E71" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>219</v>
       </c>
       <c r="I71">
         <v>1161</v>
@@ -5127,21 +5213,21 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
         <v>220</v>
-      </c>
-      <c r="E72" t="s">
-        <v>221</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>222</v>
       </c>
       <c r="I72">
         <v>759</v>
@@ -5150,21 +5236,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
         <v>223</v>
-      </c>
-      <c r="E73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
-        <v>225</v>
       </c>
       <c r="I73">
         <v>1681</v>
@@ -5173,21 +5259,21 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
         <v>226</v>
-      </c>
-      <c r="E74" t="s">
-        <v>227</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>228</v>
       </c>
       <c r="I74">
         <v>536</v>
@@ -5196,21 +5282,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
         <v>229</v>
-      </c>
-      <c r="E75" t="s">
-        <v>230</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>231</v>
       </c>
       <c r="I75">
         <v>508</v>
@@ -5219,21 +5305,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
         <v>232</v>
-      </c>
-      <c r="E76" t="s">
-        <v>233</v>
-      </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>234</v>
       </c>
       <c r="I76">
         <v>696</v>
@@ -5242,21 +5328,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
         <v>235</v>
-      </c>
-      <c r="E77" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>237</v>
       </c>
       <c r="I77">
         <v>1577</v>
@@ -5265,21 +5351,21 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
         <v>238</v>
-      </c>
-      <c r="E78" t="s">
-        <v>239</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>240</v>
       </c>
       <c r="I78">
         <v>1243</v>
@@ -5288,44 +5374,44 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>725</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I79">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J79">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I80">
         <v>1004</v>
@@ -5334,21 +5420,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I81">
         <v>439</v>
@@ -5357,21 +5443,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I82">
         <v>357</v>
@@ -5380,21 +5466,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I83">
         <v>356</v>
@@ -5403,21 +5489,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I84">
         <v>319</v>
@@ -5426,21 +5512,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I85">
         <v>913</v>
@@ -5449,21 +5535,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I86">
         <v>393</v>
@@ -5472,21 +5558,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I87">
         <v>925</v>
@@ -5495,21 +5581,21 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I88">
         <v>560</v>
@@ -5518,21 +5604,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I89">
         <v>321</v>
@@ -5541,21 +5627,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I90">
         <v>862</v>
@@ -5564,21 +5650,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I91">
         <v>486</v>
@@ -5587,21 +5673,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I92">
         <v>504</v>
@@ -5610,21 +5696,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I93">
         <v>1218</v>
@@ -5633,21 +5719,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I94">
         <v>1888</v>
@@ -5656,21 +5742,21 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I95">
         <v>384</v>
@@ -5679,21 +5765,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E96" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I96">
         <v>370</v>
@@ -5702,21 +5788,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I97">
         <v>232</v>
@@ -5725,21 +5811,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I98">
         <v>736</v>
@@ -5748,21 +5834,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E99" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I99">
         <v>691</v>
@@ -5771,21 +5857,21 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I100">
         <v>1671</v>
@@ -5794,21 +5880,21 @@
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I101">
         <v>296</v>
@@ -5817,21 +5903,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E102" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I102">
         <v>884</v>
@@ -5840,21 +5926,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E103" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I103">
         <v>530</v>
@@ -5863,21 +5949,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E104" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I104">
         <v>460</v>
@@ -5886,21 +5972,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I105">
         <v>1695</v>
@@ -5909,21 +5995,21 @@
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E106" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I106">
         <v>1607</v>
@@ -5932,21 +6018,21 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I107">
         <v>267</v>
@@ -5955,21 +6041,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E108" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I108">
         <v>342</v>
@@ -5978,21 +6064,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E109" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I109">
         <v>380</v>
@@ -6001,21 +6087,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E110" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I110">
         <v>745</v>
@@ -6024,21 +6110,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E111" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I111">
         <v>1168</v>
@@ -6047,21 +6133,21 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E112" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I112">
         <v>746</v>
@@ -6070,21 +6156,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E113" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I113">
         <v>393</v>
@@ -6093,21 +6179,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E114" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I114">
         <v>407</v>
@@ -6116,21 +6202,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I115">
         <v>814</v>
@@ -6139,44 +6225,44 @@
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>726</v>
       </c>
       <c r="E116" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I116">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J116">
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E117" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I117">
         <v>723</v>
@@ -6185,21 +6271,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E118" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I118">
         <v>656</v>
@@ -6208,21 +6294,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E119" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I119">
         <v>938</v>
@@ -6231,21 +6317,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E120" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I120">
         <v>294</v>
@@ -6254,21 +6340,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E121" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I121">
         <v>393</v>
@@ -6277,21 +6363,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E122" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I122">
         <v>459</v>
@@ -6300,21 +6386,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E123" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I123">
         <v>696</v>
@@ -6323,21 +6409,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E124" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I124">
         <v>1487</v>
@@ -6346,21 +6432,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E125" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I125">
         <v>487</v>
@@ -6369,21 +6455,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E126" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I126">
         <v>541</v>
@@ -6392,21 +6478,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E127" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I127">
         <v>194</v>
@@ -6415,21 +6501,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E128" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I128">
         <v>216</v>
@@ -6438,21 +6524,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E129" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I129">
         <v>1320</v>
@@ -6461,21 +6547,21 @@
         <v>306</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E130" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I130">
         <v>742</v>
@@ -6484,21 +6570,21 @@
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E131" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I131">
         <v>491</v>
@@ -6507,21 +6593,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E132" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I132">
         <v>892</v>
@@ -6530,21 +6616,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E133" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I133">
         <v>300</v>
@@ -6553,21 +6639,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E134" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I134">
         <v>1133</v>
@@ -6576,21 +6662,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E135" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I135">
         <v>355</v>
@@ -6599,44 +6685,44 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>727</v>
       </c>
       <c r="E136" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I136">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J136">
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E137" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I137">
         <v>843</v>
@@ -6645,21 +6731,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="I138">
         <v>1440</v>
@@ -6668,21 +6754,21 @@
         <v>285</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E139" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I139">
         <v>690</v>
@@ -6691,21 +6777,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E140" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I140">
         <v>1511</v>
@@ -6714,21 +6800,21 @@
         <v>361</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E141" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I141">
         <v>290</v>
@@ -6737,21 +6823,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E142" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I142">
         <v>773</v>
@@ -6760,21 +6846,21 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E143" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I143">
         <v>502</v>
@@ -6783,21 +6869,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E144" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I144">
         <v>802</v>
@@ -6806,44 +6892,44 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
       <c r="E145" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I145">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J145">
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E146" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I146">
         <v>1111</v>
@@ -6852,21 +6938,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E147" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
       </c>
       <c r="G147" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I147">
         <v>545</v>
@@ -6875,21 +6961,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E148" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I148">
         <v>770</v>
@@ -6898,21 +6984,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E149" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I149">
         <v>1456</v>
@@ -6921,21 +7007,21 @@
         <v>317</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E150" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I150">
         <v>838</v>
@@ -6944,21 +7030,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E151" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="I151">
         <v>1064</v>
@@ -6967,21 +7053,21 @@
         <v>256</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I152">
         <v>993</v>
@@ -6990,21 +7076,21 @@
         <v>222</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E153" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I153">
         <v>940</v>
@@ -7013,21 +7099,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E154" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I154">
         <v>497</v>
@@ -7036,21 +7122,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E155" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I155">
         <v>382</v>
@@ -7059,44 +7145,44 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>462</v>
+        <v>729</v>
       </c>
       <c r="E156" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I156">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J156">
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E157" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I157">
         <v>1571</v>
@@ -7105,21 +7191,21 @@
         <v>388</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E158" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I158">
         <v>371</v>
@@ -7128,21 +7214,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E159" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
       </c>
       <c r="G159" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I159">
         <v>1079</v>
@@ -7151,21 +7237,21 @@
         <v>265</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E160" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I160">
         <v>925</v>
@@ -7174,21 +7260,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E161" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="I161">
         <v>1255</v>
@@ -7197,21 +7283,21 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E162" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
       </c>
       <c r="G162" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I162">
         <v>278</v>
@@ -7220,21 +7306,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E163" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I163">
         <v>1707</v>
@@ -7243,21 +7329,21 @@
         <v>396</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E164" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I164">
         <v>236</v>
@@ -7266,21 +7352,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E165" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="I165">
         <v>591</v>
@@ -7289,21 +7375,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E166" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="I166">
         <v>1721</v>
@@ -7312,21 +7398,21 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E167" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="I167">
         <v>642</v>
@@ -7335,21 +7421,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E168" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="I168">
         <v>784</v>
@@ -7358,21 +7444,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E169" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I169">
         <v>376</v>
@@ -7381,21 +7467,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E170" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
       </c>
       <c r="G170" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I170">
         <v>403</v>
@@ -7404,21 +7490,21 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E171" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
       </c>
       <c r="G171" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="I171">
         <v>492</v>
@@ -7427,21 +7513,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E172" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="I172">
         <v>561</v>
@@ -7450,21 +7536,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E173" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
       </c>
       <c r="G173" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="I173">
         <v>1284</v>
@@ -7473,1804 +7559,1829 @@
         <v>296</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E174" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="I174">
-        <v>2010</v>
+        <v>826</v>
       </c>
       <c r="J174">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E175" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I175">
-        <v>826</v>
+        <v>392</v>
       </c>
       <c r="J175">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E176" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I176">
-        <v>1808</v>
+        <v>401</v>
       </c>
       <c r="J176">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E177" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="I177">
-        <v>392</v>
+        <v>564</v>
       </c>
       <c r="J177">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E178" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I178">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="J178">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E179" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I179">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="J179">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E180" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="I180">
-        <v>437</v>
+        <v>522</v>
       </c>
       <c r="J180">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E181" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="I181">
-        <v>2068</v>
+        <v>338</v>
       </c>
       <c r="J181">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E182" t="s">
-        <v>540</v>
+        <v>216</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="I182">
-        <v>2269</v>
+        <v>916</v>
       </c>
       <c r="J182">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>542</v>
+        <v>730</v>
       </c>
       <c r="E183" t="s">
-        <v>543</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I183">
-        <v>494</v>
+        <v>719</v>
       </c>
       <c r="J183">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E184" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="I184">
-        <v>522</v>
+        <v>306</v>
       </c>
       <c r="J184">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E185" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="I185">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J185">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E186" t="s">
-        <v>218</v>
+        <v>542</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="I186">
-        <v>916</v>
+        <v>506</v>
       </c>
       <c r="J186">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E187" t="s">
-        <v>336</v>
+        <v>545</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I187">
-        <v>720</v>
+        <v>338</v>
       </c>
       <c r="J187">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E188" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="I188">
-        <v>306</v>
+        <v>548</v>
       </c>
       <c r="J188">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E189" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="I189">
-        <v>346</v>
+        <v>791</v>
       </c>
       <c r="J189">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>561</v>
+        <v>731</v>
       </c>
       <c r="E190" t="s">
-        <v>562</v>
+        <v>216</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="I190">
-        <v>506</v>
+        <v>1027</v>
       </c>
       <c r="J190">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E191" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="I191">
-        <v>338</v>
+        <v>918</v>
       </c>
       <c r="J191">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E192" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="I192">
-        <v>548</v>
+        <v>1023</v>
       </c>
       <c r="J192">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E193" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="I193">
-        <v>791</v>
+        <v>698</v>
       </c>
       <c r="J193">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="E194" t="s">
-        <v>218</v>
+        <v>563</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I194">
-        <v>1028</v>
+        <v>1069</v>
       </c>
       <c r="J194">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E195" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="I195">
-        <v>918</v>
+        <v>973</v>
       </c>
       <c r="J195">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="E196" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="I196">
-        <v>1023</v>
+        <v>673</v>
       </c>
       <c r="J196">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E197" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="I197">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="J197">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E198" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="I198">
-        <v>1069</v>
+        <v>1531</v>
       </c>
       <c r="J198">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E199" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="I199">
-        <v>973</v>
+        <v>276</v>
       </c>
       <c r="J199">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="E200" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="I200">
-        <v>673</v>
+        <v>927</v>
       </c>
       <c r="J200">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E201" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
       </c>
       <c r="G201" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="I201">
-        <v>599</v>
+        <v>748</v>
       </c>
       <c r="J201">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E202" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="I202">
-        <v>1531</v>
+        <v>1097</v>
       </c>
       <c r="J202">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="E203" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="I203">
-        <v>276</v>
+        <v>1155</v>
       </c>
       <c r="J203">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E204" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="I204">
-        <v>927</v>
+        <v>1524</v>
       </c>
       <c r="J204">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>604</v>
+        <v>732</v>
       </c>
       <c r="E205" t="s">
-        <v>605</v>
+        <v>225</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="I205">
-        <v>748</v>
+        <v>584</v>
       </c>
       <c r="J205">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E206" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="I206">
-        <v>1097</v>
+        <v>1254</v>
       </c>
       <c r="J206">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="E207" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
       </c>
       <c r="G207" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="I207">
-        <v>1155</v>
+        <v>679</v>
       </c>
       <c r="J207">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E208" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="I208">
-        <v>1524</v>
+        <v>1270</v>
       </c>
       <c r="J208">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E209" t="s">
-        <v>227</v>
+        <v>606</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="I209">
-        <v>585</v>
+        <v>909</v>
       </c>
       <c r="J209">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E210" t="s">
-        <v>619</v>
+        <v>348</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="I210">
-        <v>1254</v>
+        <v>347</v>
       </c>
       <c r="J210">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E211" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="I211">
-        <v>679</v>
+        <v>790</v>
       </c>
       <c r="J211">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="E212" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="I212">
-        <v>1270</v>
+        <v>201</v>
       </c>
       <c r="J212">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E213" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="I213">
-        <v>909</v>
+        <v>267</v>
       </c>
       <c r="J213">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E214" t="s">
-        <v>352</v>
+        <v>620</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="I214">
-        <v>347</v>
+        <v>1480</v>
       </c>
       <c r="J214">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E215" t="s">
-        <v>633</v>
+        <v>216</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="I215">
-        <v>790</v>
+        <v>2354</v>
       </c>
       <c r="J215">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E216" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="I216">
-        <v>201</v>
+        <v>489</v>
       </c>
       <c r="J216">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E217" t="s">
-        <v>639</v>
+        <v>259</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="I217">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="J217">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="E218" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="I218">
-        <v>1480</v>
+        <v>1228</v>
       </c>
       <c r="J218">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="E219" t="s">
-        <v>218</v>
+        <v>633</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I219">
-        <v>2354</v>
+        <v>539</v>
       </c>
       <c r="J219">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E220" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="I220">
-        <v>489</v>
+        <v>619</v>
       </c>
       <c r="J220">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E221" t="s">
-        <v>262</v>
+        <v>639</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="I221">
-        <v>231</v>
+        <v>1210</v>
       </c>
       <c r="J221">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E222" t="s">
-        <v>652</v>
+        <v>259</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="I222">
-        <v>1228</v>
+        <v>524</v>
       </c>
       <c r="J222">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E223" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="I223">
-        <v>539</v>
+        <v>289</v>
       </c>
       <c r="J223">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="E224" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="I224">
-        <v>619</v>
+        <v>1087</v>
       </c>
       <c r="J224">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="E225" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="I225">
-        <v>1210</v>
+        <v>679</v>
       </c>
       <c r="J225">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>663</v>
+        <v>734</v>
       </c>
       <c r="E226" t="s">
-        <v>262</v>
+        <v>651</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="I226">
-        <v>524</v>
+        <v>790</v>
       </c>
       <c r="J226">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E227" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="I227">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="J227">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="E228" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="I228">
-        <v>1087</v>
+        <v>899</v>
       </c>
       <c r="J228">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E229" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="I229">
-        <v>680</v>
+        <v>396</v>
       </c>
       <c r="J229">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E230" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="I230">
-        <v>791</v>
+        <v>510</v>
       </c>
       <c r="J230">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E231" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
       </c>
       <c r="G231" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="I231">
-        <v>341</v>
+        <v>843</v>
       </c>
       <c r="J231">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="E232" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="I232">
-        <v>899</v>
+        <v>504</v>
       </c>
       <c r="J232">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E233" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="I233">
-        <v>396</v>
+        <v>1001</v>
       </c>
       <c r="J233">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>686</v>
+        <v>735</v>
+      </c>
+      <c r="C234" t="s">
+        <v>674</v>
+      </c>
+      <c r="D234">
+        <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="I234">
-        <v>510</v>
+        <v>719</v>
       </c>
       <c r="J234">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E235" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="I235">
-        <v>843</v>
+        <v>474</v>
       </c>
       <c r="J235">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E236" t="s">
-        <v>693</v>
+        <v>563</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="I236">
-        <v>504</v>
+        <v>340</v>
       </c>
       <c r="J236">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="E237" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="I237">
-        <v>1001</v>
+        <v>852</v>
       </c>
       <c r="J237">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>698</v>
-      </c>
-      <c r="C238" t="s">
-        <v>699</v>
-      </c>
-      <c r="D238">
-        <v>27</v>
+        <v>685</v>
       </c>
       <c r="E238" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="I238">
-        <v>721</v>
+        <v>1049</v>
       </c>
       <c r="J238">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E239" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="I239">
-        <v>474</v>
+        <v>729</v>
       </c>
       <c r="J239">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E240" t="s">
-        <v>584</v>
+        <v>692</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="I240">
-        <v>340</v>
+        <v>658</v>
       </c>
       <c r="J240">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="E241" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="I241">
-        <v>852</v>
+        <v>271</v>
       </c>
       <c r="J241">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="E242" t="s">
-        <v>711</v>
+        <v>253</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="I242">
-        <v>1049</v>
+        <v>487</v>
       </c>
       <c r="J242">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E243" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="I243">
-        <v>729</v>
+        <v>177</v>
       </c>
       <c r="J243">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E244" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="I244">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="J244">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="E245" t="s">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="I245">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="J245">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="E246" t="s">
-        <v>256</v>
+        <v>708</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="I246">
-        <v>487</v>
+        <v>216</v>
       </c>
       <c r="J246">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="E247" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="I247">
-        <v>177</v>
+        <v>570</v>
       </c>
       <c r="J247">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="E248" t="s">
-        <v>209</v>
+        <v>740</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="I248">
-        <v>1781</v>
+        <v>282</v>
       </c>
       <c r="J248">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="E249" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="I249">
-        <v>743</v>
+        <v>478</v>
       </c>
       <c r="J249">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="E250" t="s">
-        <v>227</v>
+        <v>746</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="I250">
-        <v>360</v>
+        <v>504</v>
       </c>
       <c r="J250">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="E251" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
       </c>
       <c r="G251" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="I251">
-        <v>216</v>
+        <v>539</v>
       </c>
       <c r="J251">
-        <v>53</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
